--- a/results/logistic/dilemma/seed-500/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/seed-500/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="78">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,82 +46,82 @@
     <t>scary</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>any</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>are</t>
   </si>
   <si>
     <t>this</t>
@@ -130,12 +130,12 @@
     <t>s</t>
   </si>
   <si>
-    <t>’</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -145,25 +145,61 @@
     <t>social</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>more</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>own</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>most</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>fascinating</t>
   </si>
   <si>
     <t>amazing</t>
@@ -172,61 +208,28 @@
     <t>lo</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>mind</t>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>technology</t>
+    <t>highly</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>good</t>
+    <t>really</t>
   </si>
   <si>
     <t>has</t>
   </si>
   <si>
-    <t>just</t>
+    <t>!</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -616,22 +619,22 @@
         <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -833,13 +836,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.07269525837216277</v>
+        <v>0.06485985453823749</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -851,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>0.07451120989820363</v>
+        <v>0.002708243532227601</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -875,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.04320120912377907</v>
+        <v>0.04109923010231614</v>
       </c>
       <c r="U3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -899,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC3">
-        <v>0.04615946573807842</v>
+        <v>0.08823862043870995</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -923,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03858390838434636</v>
+        <v>0.03744593016769067</v>
       </c>
       <c r="AM3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AU3">
-        <v>0.04192975692507833</v>
+        <v>0.06405040760972117</v>
       </c>
       <c r="AV3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -971,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.03670585855601897</v>
+        <v>0.03596502818920055</v>
       </c>
       <c r="BE3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BF3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -995,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BM3">
-        <v>0.04012782380318276</v>
+        <v>0.04868480745794675</v>
       </c>
       <c r="BN3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BO3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1027,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04399564933933297</v>
+        <v>0.04043742052335816</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1045,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>0.06785174869249087</v>
+        <v>0.002520716180200268</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1069,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03580227759165346</v>
+        <v>0.03509699088435416</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1093,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AC4">
-        <v>0.04340269770099037</v>
+        <v>0.05208102840977075</v>
       </c>
       <c r="AD4">
         <v>5</v>
@@ -1117,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.03451960320841051</v>
+        <v>0.03427587646862569</v>
       </c>
       <c r="AM4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1141,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AU4">
-        <v>0.04031428343953988</v>
+        <v>0.04484335907096593</v>
       </c>
       <c r="AV4">
         <v>5</v>
@@ -1165,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.03399788575026951</v>
+        <v>0.03394302945781937</v>
       </c>
       <c r="BE4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1189,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BM4">
-        <v>0.03899856261858459</v>
+        <v>0.03959388385231452</v>
       </c>
       <c r="BN4">
         <v>5</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1221,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03697285505866743</v>
+        <v>0.0377751885175972</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1239,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.05924179183293567</v>
+        <v>0.001251280201818679</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1263,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03411725898171385</v>
+        <v>0.03426223378365348</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1287,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC5">
-        <v>0.04205960406452722</v>
+        <v>0.04638940382588629</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1311,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.03367021470621948</v>
+        <v>0.03372210162784798</v>
       </c>
       <c r="AM5">
         <v>4</v>
@@ -1335,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AU5">
-        <v>0.0393270748245861</v>
+        <v>0.04196906040601557</v>
       </c>
       <c r="AV5">
         <v>4</v>
@@ -1359,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5">
-        <v>0.03348838305343653</v>
+        <v>0.03360460382542711</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1383,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BM5">
-        <v>0.03850924226800746</v>
+        <v>0.0383115702684807</v>
       </c>
       <c r="BN5">
         <v>4</v>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1415,13 +1418,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03682835248000262</v>
+        <v>0.03561399817281394</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1433,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K6">
-        <v>0.05821288937987981</v>
+        <v>0.001042509356125901</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1457,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.03396078042227664</v>
+        <v>0.03396164477725483</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1481,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AC6">
-        <v>0.04124678734337269</v>
+        <v>0.04582720735870921</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1505,44 +1508,44 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.03351186130401619</v>
+        <v>0.03370758821538905</v>
       </c>
       <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>3</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>18</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU6">
+        <v>0.04141990857228071</v>
+      </c>
+      <c r="AV6">
         <v>4</v>
       </c>
-      <c r="AN6">
+      <c r="AW6">
         <v>4</v>
       </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>43</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU6">
-        <v>0.03890992666999766</v>
-      </c>
-      <c r="AV6">
-        <v>5</v>
-      </c>
-      <c r="AW6">
-        <v>5</v>
-      </c>
       <c r="AX6">
         <v>0</v>
       </c>
@@ -1553,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6">
-        <v>0.03332926707406236</v>
+        <v>0.03358768738596967</v>
       </c>
       <c r="BE6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1577,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="BM6">
-        <v>0.03798227833895849</v>
+        <v>0.0382586537349607</v>
       </c>
       <c r="BN6">
         <v>3</v>
@@ -1609,13 +1612,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03659258511481266</v>
+        <v>0.03559834062090839</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1627,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K7">
-        <v>0.05109213343922124</v>
+        <v>0.001037802302942924</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1651,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.03370547329898436</v>
+        <v>0.0339449520243079</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1675,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AC7">
-        <v>0.0390555324163744</v>
+        <v>0.04246468242455832</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -1702,10 +1705,10 @@
         <v>15</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.03329818504986623</v>
+        <v>0.03369073629575409</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1723,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AU7">
-        <v>0.03830290945253911</v>
+        <v>0.04082066750423186</v>
       </c>
       <c r="AV7">
         <v>3</v>
@@ -1750,16 +1753,16 @@
         <v>15</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD7">
-        <v>0.03322922055203654</v>
+        <v>0.03350315361030436</v>
       </c>
       <c r="BE7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1771,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BM7">
-        <v>0.03756810663665523</v>
+        <v>0.03792039847974448</v>
       </c>
       <c r="BN7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1803,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0345507993770899</v>
+        <v>0.03516775794350568</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1821,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>0.04291539866516323</v>
+        <v>0.0008485321061510482</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1851,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.03346773849941835</v>
+        <v>0.03348590131826707</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1869,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AC8">
-        <v>0.03841933016752343</v>
+        <v>0.03653211649759796</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1893,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.03325349522673714</v>
+        <v>0.03328862873169103</v>
       </c>
       <c r="AM8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1917,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AU8">
-        <v>0.03763768782486122</v>
+        <v>0.03771101805339513</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1941,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.03307010457266237</v>
+        <v>0.03330005949357154</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1965,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BM8">
-        <v>0.03730469392646563</v>
+        <v>0.03680869509881136</v>
       </c>
       <c r="BN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1997,13 +2000,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03440629679842509</v>
+        <v>0.03307702658229741</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2015,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K9">
-        <v>0.04242802381897888</v>
+        <v>0.0006377439519512794</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2039,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.03331125993998114</v>
+        <v>0.03326042970012966</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2063,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AC9">
-        <v>0.0379245061961949</v>
+        <v>0.03621086137349678</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2087,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.03313983164766295</v>
+        <v>0.03325492489242111</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2111,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9">
-        <v>0.03712029322555619</v>
+        <v>0.03739721700554664</v>
       </c>
       <c r="AV9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2135,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.03306965679192557</v>
+        <v>0.03326622661465668</v>
       </c>
       <c r="BE9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2159,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BM9">
-        <v>0.03677768382786008</v>
+        <v>0.03658516836239067</v>
       </c>
       <c r="BN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2191,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03220479768428332</v>
+        <v>0.03304571147848631</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2209,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>0.04204895449416883</v>
+        <v>0.0006350542072752928</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2233,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.03290057515366876</v>
+        <v>0.03322704419423578</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2257,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC10">
-        <v>0.03619273067114454</v>
+        <v>0.03500615465811735</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2281,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL10">
-        <v>0.03300949928940946</v>
+        <v>0.03322730850579264</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2305,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10">
-        <v>0.03657656569572101</v>
+        <v>0.03622046307611483</v>
       </c>
       <c r="AV10">
         <v>2</v>
@@ -2329,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD10">
-        <v>0.03305380330293873</v>
+        <v>0.03317318619764082</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2353,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="BM10">
-        <v>0.03674008641894485</v>
+        <v>0.03574694310081307</v>
       </c>
       <c r="BN10">
         <v>2</v>
@@ -2377,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2385,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.03218198148765204</v>
+        <v>0.03295959494300577</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2403,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>0.0342242126645773</v>
+        <v>0.0006249676647403429</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2427,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.03287586801270499</v>
+        <v>0.03313523405302761</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2451,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AC11">
-        <v>0.03580394040795783</v>
+        <v>0.03476521331504145</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2475,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.03298449612064052</v>
+        <v>0.03316223933442882</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2499,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11">
-        <v>0.03617004136769564</v>
+        <v>0.03598511229022847</v>
       </c>
       <c r="AV11">
         <v>2</v>
@@ -2523,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BD11">
-        <v>0.03302867972724807</v>
+        <v>0.03313930489710412</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2547,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BM11">
-        <v>0.03632600705575477</v>
+        <v>0.03557929804849754</v>
       </c>
       <c r="BN11">
         <v>2</v>
@@ -2571,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2579,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.03215155989214365</v>
+        <v>0.0329126222872891</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2597,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>0.03392637248079797</v>
+        <v>0.000622950356233353</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2621,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.03284292515808663</v>
+        <v>0.0330851557941868</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2645,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AC12">
-        <v>0.03576859583857722</v>
+        <v>0.03452427197196557</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2669,13 +2672,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.03295115856228193</v>
+        <v>0.03311168357552394</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2693,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AU12">
-        <v>0.03613308461060242</v>
+        <v>0.0357497615043421</v>
       </c>
       <c r="AV12">
         <v>2</v>
@@ -2717,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD12">
-        <v>0.03299518162632719</v>
+        <v>0.03313084667737541</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2741,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="BM12">
-        <v>0.03628836347728295</v>
+        <v>0.03541165299618202</v>
       </c>
       <c r="BN12">
         <v>2</v>
@@ -2765,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2773,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.03200705731347885</v>
+        <v>0.0327482179922808</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2791,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>0.0338992961004544</v>
+        <v>0.000620933047726363</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2815,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.03268644659864942</v>
+        <v>0.03290988188824394</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2839,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AC13">
-        <v>0.0345668804796365</v>
+        <v>0.03444395819094027</v>
       </c>
       <c r="AD13">
         <v>2</v>
@@ -2863,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13">
-        <v>0.03279280516007865</v>
+        <v>0.03301291056489019</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2887,19 +2890,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AU13">
-        <v>0.03533065978111473</v>
+        <v>0.03567131124237998</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2911,19 +2914,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BD13">
-        <v>0.03286163700338048</v>
+        <v>0.03312248530089037</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2935,19 +2938,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BM13">
-        <v>0.03598726101906493</v>
+        <v>0.03535577131207685</v>
       </c>
       <c r="BN13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -2959,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2967,7 +2970,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03195381952133917</v>
+        <v>0.03224717633130311</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2985,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.03297869916877284</v>
+        <v>0.0006202606115573662</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -3009,19 +3012,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>0.0326287966030673</v>
+        <v>0.03270110302305346</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3033,19 +3036,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AC14">
-        <v>0.03453153591025589</v>
+        <v>0.03366294764688819</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3057,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>63</v>
+        <v>1083</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0.03273446443295112</v>
+        <v>0.03300448460507271</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -3081,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="AT14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AU14">
-        <v>0.03510891923855543</v>
+        <v>0.03428756755470991</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3105,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD14">
-        <v>0.03283606564695302</v>
+        <v>0.03312243687926853</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3129,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="BL14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="BM14">
-        <v>0.03576139954823398</v>
+        <v>0.03513520972624133</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3153,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3161,7 +3164,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02984358519372255</v>
+        <v>0.03067314418297808</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3179,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.03295162278842927</v>
+        <v>0.0006021048349944565</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3203,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.03231694038060998</v>
+        <v>0.03269275664657999</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3227,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC15">
-        <v>0.03378940832786258</v>
+        <v>0.0322754861032573</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3251,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15">
-        <v>0.03270414474977339</v>
+        <v>0.03299605864525523</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3275,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.035035005724369</v>
+        <v>0.03405221676882355</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3299,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15">
-        <v>0.03280301532676895</v>
+        <v>0.03312238845764669</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3323,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BL15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BM15">
-        <v>0.03568611239129033</v>
+        <v>0.03496756467392581</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3347,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3355,7 +3358,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02979034740158289</v>
+        <v>0.0306653154070253</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3379,13 +3382,13 @@
         <v>55</v>
       </c>
       <c r="K16">
-        <v>0.02588501960845784</v>
+        <v>0.0005947080371354932</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3397,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.03225929038502785</v>
+        <v>0.03268441027010652</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3421,19 +3424,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC16">
-        <v>0.03357734091157893</v>
+        <v>0.03139203451197905</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3445,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL16">
-        <v>0.03264580402264586</v>
+        <v>0.03299605864525523</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3469,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AU16">
-        <v>0.035035005724369</v>
+        <v>0.03397376650686143</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3493,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD16">
-        <v>0.03278626627630851</v>
+        <v>0.03312238845764669</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3517,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BM16">
-        <v>0.03568611239129033</v>
+        <v>0.03491168298982064</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3541,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3549,7 +3552,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0297751366038287</v>
+        <v>0.03065748663107253</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3567,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K17">
-        <v>0.02572256132639639</v>
+        <v>0.0004242660530755241</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3591,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>0.03224281895771867</v>
+        <v>0.03268441027010652</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3615,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC17">
-        <v>0.03350665177281771</v>
+        <v>0.03027829544653642</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3639,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL17">
-        <v>0.03262913524346657</v>
+        <v>0.03298763268543775</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3669,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="AU17">
-        <v>0.035035005724369</v>
+        <v>0.03389531624489931</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3690,10 +3693,10 @@
         <v>12</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD17">
-        <v>0.03278626627630851</v>
+        <v>0.03311393023791798</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3717,7 +3720,7 @@
         <v>59</v>
       </c>
       <c r="BM17">
-        <v>0.03568611239129033</v>
+        <v>0.03485580130571547</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3743,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0297751366038287</v>
+        <v>0.03065748663107253</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3761,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.02566840856570924</v>
+        <v>0.0004222487445685341</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3785,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T18">
-        <v>0.03224281895771867</v>
+        <v>0.03267606389363305</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3812,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC18">
-        <v>0.03350665177281771</v>
+        <v>0.03003735410346054</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3833,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL18">
-        <v>0.03262913524346657</v>
+        <v>0.03297078076580279</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3857,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AU18">
-        <v>0.03496109221018256</v>
+        <v>0.03373841572097507</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3884,10 +3887,10 @@
         <v>14</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18">
-        <v>0.03278626627630851</v>
+        <v>0.03309701379846055</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3905,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BL18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BM18">
-        <v>0.03561082523434668</v>
+        <v>0.03474403793750511</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3937,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0297751366038287</v>
+        <v>0.03064965785511976</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3961,7 +3964,7 @@
         <v>58</v>
       </c>
       <c r="K19">
-        <v>0.02566840856570924</v>
+        <v>0.0004215763083995374</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3979,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T19">
-        <v>0.03224281895771867</v>
+        <v>0.03265937114068611</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4003,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC19">
-        <v>0.03350665177281771</v>
+        <v>0.02995704032243524</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4027,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL19">
-        <v>0.03262913524346657</v>
+        <v>0.03296235480598531</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4051,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AU19">
-        <v>0.03496109221018256</v>
+        <v>0.03365996545901294</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4075,19 +4078,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BD19">
-        <v>0.0327774439703415</v>
+        <v>0.03308855557873183</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -4099,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="BL19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BM19">
-        <v>0.03561082523434668</v>
+        <v>0.03468815625339994</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4123,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4131,7 +4134,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02975992580607451</v>
+        <v>0.0306340003032142</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4155,7 +4158,7 @@
         <v>59</v>
       </c>
       <c r="K20">
-        <v>0.02566840856570924</v>
+        <v>0.0004209038722305408</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4176,10 +4179,10 @@
         <v>12</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T20">
-        <v>0.0322263475304095</v>
+        <v>0.03265102476421265</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4197,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC20">
-        <v>0.03343596263405649</v>
+        <v>0.02987672654140995</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4221,19 +4224,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL20">
-        <v>0.03261246646428727</v>
+        <v>0.03293473841935683</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>1</v>
@@ -4245,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU20">
-        <v>0.03487655486943306</v>
+        <v>0.03355315416940271</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4272,10 +4275,10 @@
         <v>62</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD20">
-        <v>0.03276951722584807</v>
+        <v>0.03303780626035955</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4293,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BL20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BM20">
-        <v>0.03538496376351572</v>
+        <v>0.03457639288518959</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4325,7 +4328,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02975992580607451</v>
+        <v>0.03062617152726143</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4343,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>0.02561425580502209</v>
+        <v>0.0004195589998925474</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4370,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T21">
-        <v>0.0322263475304095</v>
+        <v>0.03260094650537183</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4391,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC21">
-        <v>0.03343596263405649</v>
+        <v>0.02971609897935936</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4418,10 +4421,10 @@
         <v>14</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.03261246646428727</v>
+        <v>0.03291179904708042</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4439,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AU21">
-        <v>0.03483959811233985</v>
+        <v>0.03350306493508871</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4463,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD21">
-        <v>0.03276951722584807</v>
+        <v>0.0330124316011734</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4487,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BL21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BM21">
-        <v>0.03515910229268478</v>
+        <v>0.03396169436003268</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4511,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4519,7 +4522,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.02975232040719741</v>
+        <v>0.03057919887154477</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4537,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K22">
-        <v>0.02561425580502209</v>
+        <v>0.0004188865637235508</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4561,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22">
-        <v>0.0322181118167549</v>
+        <v>0.03257590737595142</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4585,37 +4588,37 @@
         <v>0</v>
       </c>
       <c r="Z22">
+        <v>24</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC22">
+        <v>0.02963578519833406</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>15</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC22">
-        <v>0.03322389521777284</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>20</v>
-      </c>
       <c r="AK22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.03260413207469763</v>
+        <v>0.03288652116762798</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4633,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU22">
-        <v>0.03473935166762327</v>
+        <v>0.03269020128781937</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4657,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.03276114270061786</v>
+        <v>0.03298705694198726</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4681,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BM22">
-        <v>0.03500848180924088</v>
+        <v>0.03384696584123717</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4713,7 +4716,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.02974471500832031</v>
+        <v>0.03055571254368643</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4731,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K23">
-        <v>0.02545179752296064</v>
+        <v>0.0004175416913855575</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4755,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23">
-        <v>0.03220987610310032</v>
+        <v>0.03255086824653101</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4779,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC23">
-        <v>0.03301182780148918</v>
+        <v>0.02947515763628347</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4803,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.03259579768510798</v>
+        <v>0.03286124328817554</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4827,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AT23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AU23">
-        <v>0.03451761112506397</v>
+        <v>0.03264011205350537</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4851,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BD23">
-        <v>0.03275276817538764</v>
+        <v>0.03296168228280111</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4875,19 +4878,19 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="BM23">
-        <v>0.03497083823076906</v>
+        <v>0.03368228593950682</v>
       </c>
       <c r="BN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP23">
         <v>0</v>
@@ -4899,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4907,7 +4910,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02971429341281194</v>
+        <v>0.03053222621582811</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4925,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K24">
-        <v>0.02528933924089919</v>
+        <v>0.0004101448935265942</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4949,37 +4952,37 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>0.0325258291171106</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>30</v>
       </c>
-      <c r="T24">
-        <v>0.03217693324848196</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>20</v>
-      </c>
       <c r="AB24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC24">
-        <v>0.03219890270573517</v>
+        <v>0.02859170604500522</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4997,37 +5000,37 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="AK24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL24">
+        <v>0.03283596540872309</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <v>30</v>
-      </c>
-      <c r="AL24">
-        <v>0.0325624601267494</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>1</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>20</v>
       </c>
       <c r="AT24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AU24">
-        <v>0.03366760571192</v>
+        <v>0.03224786074369477</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5045,19 +5048,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="BD24">
-        <v>0.03271927007446676</v>
+        <v>0.03294481426496552</v>
       </c>
       <c r="BE24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG24">
         <v>1</v>
@@ -5069,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM24">
-        <v>0.03429329998783279</v>
+        <v>0.03329111415077061</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5101,7 +5104,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02969147721618065</v>
+        <v>0.03050873988796978</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5119,13 +5122,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K25">
-        <v>0.02466658249299696</v>
+        <v>0.0004067827126816109</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5143,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25">
-        <v>0.03215222610751819</v>
+        <v>0.03249244361121673</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5167,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC25">
-        <v>0.03205752442821272</v>
+        <v>0.02819013713987874</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5191,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.03253745695798046</v>
+        <v>0.03280226156945317</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5215,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AT25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AU25">
-        <v>0.03351977868354714</v>
+        <v>0.03169870890995992</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5239,13 +5242,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD25">
-        <v>0.0326941464987761</v>
+        <v>0.03292784940388625</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5263,19 +5266,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BM25">
-        <v>0.0341427256739455</v>
+        <v>0.03323226731608026</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5287,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5295,7 +5298,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02968387181730356</v>
+        <v>0.03047742478415867</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5313,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K26">
-        <v>0.02455827697162266</v>
+        <v>0.0004020756594986344</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5337,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T26">
-        <v>0.03214399039386359</v>
+        <v>0.03249244361121673</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5361,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC26">
-        <v>0.03188080158130968</v>
+        <v>0.02762794067270167</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5385,13 +5388,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.03252912256839081</v>
+        <v>0.03280226156945317</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5409,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AT26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AU26">
-        <v>0.03333499489808105</v>
+        <v>0.03067885550445234</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5433,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD26">
-        <v>0.03268577197354588</v>
+        <v>0.03292784940388625</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5457,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="BL26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BM26">
-        <v>0.03395450778158637</v>
+        <v>0.03256465225740336</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5481,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5489,7 +5492,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0296078178285326</v>
+        <v>0.03047742478415867</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5513,7 +5516,7 @@
         <v>66</v>
       </c>
       <c r="K27">
-        <v>0.02442289506990478</v>
+        <v>0.0003933339893016778</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5531,13 +5534,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T27">
-        <v>0.0320616332573177</v>
+        <v>0.03239228709353509</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5555,37 +5558,37 @@
         <v>0</v>
       </c>
       <c r="Z27">
+        <v>46</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27">
+        <v>0.02658386151937283</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>53</v>
+      </c>
+      <c r="AK27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC27">
-        <v>0.03145666674874237</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>1</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>70</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AL27">
-        <v>0.03244577867249435</v>
+        <v>0.0327011500516434</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5603,13 +5606,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AT27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AU27">
-        <v>0.03289151381296245</v>
+        <v>0.0301297036707175</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5627,13 +5630,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.03260202672124369</v>
+        <v>0.03282635076714168</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5651,13 +5654,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="BL27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BM27">
-        <v>0.03350278483992446</v>
+        <v>0.03217348046866714</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5675,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5683,7 +5686,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02957739623302422</v>
+        <v>0.03038347947272535</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5701,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K28">
-        <v>0.02409797850578188</v>
+        <v>0.0003886269361187012</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5725,19 +5728,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T28">
-        <v>0.03202869040269934</v>
+        <v>0.03237571379394189</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -5749,13 +5752,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC28">
-        <v>0.03131528847121993</v>
+        <v>0.02602166505219576</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5773,19 +5776,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AL28">
-        <v>0.03241244111413576</v>
+        <v>0.03239547699103806</v>
       </c>
       <c r="AM28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28">
         <v>1</v>
@@ -5797,13 +5800,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AT28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AU28">
-        <v>0.03274368678458959</v>
+        <v>0.02934520105109628</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5821,19 +5824,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="BD28">
-        <v>0.03256852862032281</v>
+        <v>0.03240348820232778</v>
       </c>
       <c r="BE28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG28">
         <v>1</v>
@@ -5845,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="BL28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BM28">
-        <v>0.03335221052603717</v>
+        <v>0.03161466362761541</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5869,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5877,7 +5880,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02900699131724206</v>
+        <v>0.02723631153970922</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5895,13 +5898,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K29">
-        <v>0.02398967298440758</v>
+        <v>0.0003819025744287345</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5919,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.03141101187860511</v>
+        <v>0.02903704375120035</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5943,13 +5946,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC29">
-        <v>0.02990150569599555</v>
+        <v>0.0252185272419428</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -5967,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.03178736189491226</v>
+        <v>0.02931391420501607</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5991,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="AT29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AU29">
-        <v>0.03126541650086094</v>
+        <v>0.02746239476400537</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6015,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.03194043922805637</v>
+        <v>0.02942614643619838</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6039,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="BL29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BM29">
-        <v>0.03184646738716415</v>
+        <v>0.03027350320909124</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6063,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6071,7 +6074,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02645157729453799</v>
+        <v>0.02722848276375645</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6095,7 +6098,7 @@
         <v>69</v>
       </c>
       <c r="K30">
-        <v>0.02290661777066457</v>
+        <v>0.0003657641063728148</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6113,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02864381209066297</v>
+        <v>0.02902869737472688</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6140,10 +6143,10 @@
         <v>449</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC30">
-        <v>0.02414034088695622</v>
+        <v>0.02329099649733571</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6161,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.02898700699279099</v>
+        <v>0.0293054882451986</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6191,7 +6194,7 @@
         <v>70</v>
       </c>
       <c r="AU30">
-        <v>0.02524146509466669</v>
+        <v>0.02589338952476295</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6209,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.02912659875070268</v>
+        <v>0.02941768821646967</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6239,7 +6242,7 @@
         <v>70</v>
       </c>
       <c r="BM30">
-        <v>0.02571056409625664</v>
+        <v>0.02915586952698777</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6257,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>277</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6265,7 +6268,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0252499242719569</v>
+        <v>0.02599153616321777</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6289,7 +6292,7 @@
         <v>70</v>
       </c>
       <c r="K31">
-        <v>0.01849316777466183</v>
+        <v>0.0003523153829928816</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6307,13 +6310,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.0273425693332378</v>
+        <v>0.02770996989191871</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6334,16 +6337,16 @@
         <v>607</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AC31">
-        <v>0.02092300970192535</v>
+        <v>0.0216847208768298</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -6355,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1088</v>
+        <v>114</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02767017343762682</v>
+        <v>0.02797418659403661</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6382,16 +6385,16 @@
         <v>607</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AU31">
-        <v>0.01047401808959226</v>
+        <v>0.004711818794990257</v>
       </c>
       <c r="AV31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -6403,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>1088</v>
+        <v>384</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02780342376432804</v>
+        <v>0.02808128949933274</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6430,16 +6433,16 @@
         <v>607</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="BM31">
-        <v>0.006022557029482739</v>
+        <v>0.01406781481859094</v>
       </c>
       <c r="BN31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BO31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -6451,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>1088</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6459,7 +6462,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02393419026621939</v>
+        <v>0.02322014947593492</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6477,37 +6480,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>780</v>
+        <v>961</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.0001707576173637838</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>960</v>
+        <v>384</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02591779087099378</v>
+        <v>0.02475535262031051</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6525,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>780</v>
+        <v>961</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -6537,25 +6540,25 @@
         <v>1</v>
       </c>
       <c r="AE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>960</v>
+        <v>384</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.02622832403861795</v>
+        <v>0.02499139681864837</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6573,37 +6576,37 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>780</v>
+        <v>961</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AU32">
         <v>0</v>
       </c>
       <c r="AV32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AW32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AX32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32">
-        <v>960</v>
+        <v>1083</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.0263546308995001</v>
+        <v>0.02508707971536775</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6621,31 +6624,31 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>780</v>
+        <v>961</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BM32">
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BO32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BP32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BQ32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BR32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32">
-        <v>960</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33" spans="1:62">
@@ -6653,97 +6656,97 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.02256521846834221</v>
+        <v>0.02180314102848238</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>960</v>
+        <v>1142</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02443536241316764</v>
+        <v>0.02324465847861253</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>960</v>
+        <v>1142</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.02472813391248156</v>
+        <v>0.02346629809168432</v>
       </c>
       <c r="AM33">
         <v>1</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>960</v>
+        <v>1142</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02484721635806063</v>
+        <v>0.02355614194447039</v>
       </c>
       <c r="BE33">
         <v>1</v>
       </c>
       <c r="BF33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BH33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BI33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ33">
-        <v>960</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="34" spans="1:62">
